--- a/ExpSofía - Doble rendija/doblerendija.xlsx
+++ b/ExpSofía - Doble rendija/doblerendija.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SNB\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Downloads\Labs\LaboratorioDeFisicaModerna202220\ExpSofía - Doble rendija\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F9824F-CF34-4073-B9CD-31461B38F3B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCA3371-9DF8-404B-8DFF-2B84F33CFEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3975" yWindow="3270" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>micrometros</t>
   </si>
@@ -68,6 +68,15 @@
   </si>
   <si>
     <t>micrometros1</t>
+  </si>
+  <si>
+    <t>microsDoble</t>
+  </si>
+  <si>
+    <t>voltajeDoble</t>
+  </si>
+  <si>
+    <t>microsDobleCentered</t>
   </si>
 </sst>
 </file>
@@ -3269,15 +3278,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3568,15 +3577,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:T201"/>
+  <dimension ref="B1:X201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" topLeftCell="O83" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U101" sqref="U101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.25">
       <c r="F1" t="s">
         <v>2</v>
       </c>
@@ -3592,8 +3608,17 @@
       <c r="S1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C2">
         <v>400</v>
       </c>
@@ -3613,8 +3638,18 @@
       <c r="S2">
         <v>2.8000000000000001E-2</v>
       </c>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U2">
+        <f t="shared" ref="U2:U65" si="1">V2-V$101</f>
+        <v>-4950</v>
+      </c>
+      <c r="V2">
+        <v>200</v>
+      </c>
+      <c r="W2">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>500</v>
       </c>
@@ -3640,8 +3675,18 @@
       <c r="S3">
         <v>3.7999999999999999E-2</v>
       </c>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U3">
+        <f t="shared" si="1"/>
+        <v>-4900</v>
+      </c>
+      <c r="V3">
+        <v>250</v>
+      </c>
+      <c r="W3">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>500</v>
       </c>
@@ -3661,8 +3706,18 @@
       <c r="S4">
         <v>4.8000000000000001E-2</v>
       </c>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U4">
+        <f t="shared" si="1"/>
+        <v>-4850</v>
+      </c>
+      <c r="V4">
+        <v>300</v>
+      </c>
+      <c r="W4">
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>500</v>
       </c>
@@ -3682,8 +3737,18 @@
       <c r="S5">
         <v>6.3E-2</v>
       </c>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U5">
+        <f t="shared" si="1"/>
+        <v>-4800</v>
+      </c>
+      <c r="V5">
+        <v>350</v>
+      </c>
+      <c r="W5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>500</v>
       </c>
@@ -3703,8 +3768,18 @@
       <c r="S6">
         <v>8.3000000000000004E-2</v>
       </c>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U6">
+        <f t="shared" si="1"/>
+        <v>-4750</v>
+      </c>
+      <c r="V6">
+        <v>400</v>
+      </c>
+      <c r="W6">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>200</v>
       </c>
@@ -3715,7 +3790,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q7">
-        <f t="shared" ref="Q7:Q21" si="1">R7-R$23</f>
+        <f t="shared" ref="Q7:Q21" si="2">R7-R$23</f>
         <v>-3200</v>
       </c>
       <c r="R7">
@@ -3724,8 +3799,18 @@
       <c r="S7">
         <v>0.109</v>
       </c>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U7">
+        <f t="shared" si="1"/>
+        <v>-4700</v>
+      </c>
+      <c r="V7">
+        <v>450</v>
+      </c>
+      <c r="W7">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -3740,7 +3825,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3000</v>
       </c>
       <c r="R8">
@@ -3749,8 +3834,18 @@
       <c r="S8">
         <v>0.14399999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U8">
+        <f t="shared" si="1"/>
+        <v>-4650</v>
+      </c>
+      <c r="V8">
+        <v>500</v>
+      </c>
+      <c r="W8">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G9">
         <v>450</v>
       </c>
@@ -3758,7 +3853,7 @@
         <v>7.8E-2</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2800</v>
       </c>
       <c r="R9">
@@ -3767,8 +3862,18 @@
       <c r="S9">
         <v>0.183</v>
       </c>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U9">
+        <f t="shared" si="1"/>
+        <v>-4600</v>
+      </c>
+      <c r="V9">
+        <v>550</v>
+      </c>
+      <c r="W9">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G10">
         <v>500</v>
       </c>
@@ -3776,7 +3881,7 @@
         <v>0.08</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2600</v>
       </c>
       <c r="R10">
@@ -3785,8 +3890,18 @@
       <c r="S10">
         <v>0.224</v>
       </c>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U10">
+        <f t="shared" si="1"/>
+        <v>-4550</v>
+      </c>
+      <c r="V10">
+        <v>600</v>
+      </c>
+      <c r="W10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G11">
         <v>550</v>
       </c>
@@ -3794,7 +3909,7 @@
         <v>7.8E-2</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2400</v>
       </c>
       <c r="R11">
@@ -3803,8 +3918,18 @@
       <c r="S11">
         <v>0.27500000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U11">
+        <f t="shared" si="1"/>
+        <v>-4500</v>
+      </c>
+      <c r="V11">
+        <v>650</v>
+      </c>
+      <c r="W11">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G12">
         <v>600</v>
       </c>
@@ -3812,7 +3937,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2200</v>
       </c>
       <c r="R12">
@@ -3821,8 +3946,18 @@
       <c r="S12">
         <v>0.32700000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U12">
+        <f t="shared" si="1"/>
+        <v>-4450</v>
+      </c>
+      <c r="V12">
+        <v>700</v>
+      </c>
+      <c r="W12">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G13">
         <v>650</v>
       </c>
@@ -3830,7 +3965,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2000</v>
       </c>
       <c r="R13">
@@ -3839,8 +3974,18 @@
       <c r="S13">
         <v>0.38400000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U13">
+        <f t="shared" si="1"/>
+        <v>-4400</v>
+      </c>
+      <c r="V13">
+        <v>750</v>
+      </c>
+      <c r="W13">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G14">
         <v>700</v>
       </c>
@@ -3848,7 +3993,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1800</v>
       </c>
       <c r="R14">
@@ -3857,8 +4002,18 @@
       <c r="S14">
         <v>0.442</v>
       </c>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U14">
+        <f t="shared" si="1"/>
+        <v>-4350</v>
+      </c>
+      <c r="V14">
+        <v>800</v>
+      </c>
+      <c r="W14">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G15">
         <v>750</v>
       </c>
@@ -3866,7 +4021,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1600</v>
       </c>
       <c r="R15">
@@ -3875,8 +4030,18 @@
       <c r="S15">
         <v>0.503</v>
       </c>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U15">
+        <f t="shared" si="1"/>
+        <v>-4300</v>
+      </c>
+      <c r="V15">
+        <v>850</v>
+      </c>
+      <c r="W15">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G16">
         <v>800</v>
       </c>
@@ -3884,7 +4049,7 @@
         <v>0.06</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1400</v>
       </c>
       <c r="R16">
@@ -3893,8 +4058,18 @@
       <c r="S16">
         <v>0.56200000000000006</v>
       </c>
-    </row>
-    <row r="17" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="U16">
+        <f t="shared" si="1"/>
+        <v>-4250</v>
+      </c>
+      <c r="V16">
+        <v>900</v>
+      </c>
+      <c r="W16">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G17">
         <v>850</v>
       </c>
@@ -3902,7 +4077,7 @@
         <v>6.3E-2</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1200</v>
       </c>
       <c r="R17">
@@ -3911,8 +4086,18 @@
       <c r="S17">
         <v>0.61699999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="U17">
+        <f t="shared" si="1"/>
+        <v>-4200</v>
+      </c>
+      <c r="V17">
+        <v>950</v>
+      </c>
+      <c r="W17">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G18">
         <v>900</v>
       </c>
@@ -3920,7 +4105,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1000</v>
       </c>
       <c r="R18">
@@ -3929,8 +4114,18 @@
       <c r="S18">
         <v>0.66600000000000004</v>
       </c>
-    </row>
-    <row r="19" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="U18">
+        <f t="shared" si="1"/>
+        <v>-4150</v>
+      </c>
+      <c r="V18">
+        <v>1000</v>
+      </c>
+      <c r="W18">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G19">
         <v>950</v>
       </c>
@@ -3938,7 +4133,7 @@
         <v>7.8E-2</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-800</v>
       </c>
       <c r="R19">
@@ -3947,8 +4142,18 @@
       <c r="S19">
         <v>0.70799999999999996</v>
       </c>
-    </row>
-    <row r="20" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="U19">
+        <f t="shared" si="1"/>
+        <v>-4100</v>
+      </c>
+      <c r="V19">
+        <v>1050</v>
+      </c>
+      <c r="W19">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G20">
         <v>1000</v>
       </c>
@@ -3956,7 +4161,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-600</v>
       </c>
       <c r="R20">
@@ -3965,8 +4170,18 @@
       <c r="S20">
         <v>0.74099999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="U20">
+        <f t="shared" si="1"/>
+        <v>-4050</v>
+      </c>
+      <c r="V20">
+        <v>1100</v>
+      </c>
+      <c r="W20">
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="21" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G21">
         <v>1050</v>
       </c>
@@ -3974,7 +4189,7 @@
         <v>0.1</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-400</v>
       </c>
       <c r="R21">
@@ -3983,8 +4198,18 @@
       <c r="S21">
         <v>0.76300000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="U21">
+        <f t="shared" si="1"/>
+        <v>-4000</v>
+      </c>
+      <c r="V21">
+        <v>1150</v>
+      </c>
+      <c r="W21">
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G22">
         <v>1100</v>
       </c>
@@ -4001,8 +4226,18 @@
       <c r="S22">
         <v>0.77700000000000002</v>
       </c>
-    </row>
-    <row r="23" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="U22">
+        <f t="shared" si="1"/>
+        <v>-3950</v>
+      </c>
+      <c r="V22">
+        <v>1200</v>
+      </c>
+      <c r="W22">
+        <v>0.123</v>
+      </c>
+    </row>
+    <row r="23" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G23">
         <v>1150</v>
       </c>
@@ -4010,7 +4245,7 @@
         <v>0.11799999999999999</v>
       </c>
       <c r="Q23">
-        <f t="shared" ref="Q23:Q26" si="2">R23-R$23</f>
+        <f t="shared" ref="Q23:Q26" si="3">R23-R$23</f>
         <v>0</v>
       </c>
       <c r="R23">
@@ -4020,8 +4255,18 @@
         <v>0.77800000000000002</v>
       </c>
       <c r="T23" s="1"/>
-    </row>
-    <row r="24" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="U23">
+        <f t="shared" si="1"/>
+        <v>-3900</v>
+      </c>
+      <c r="V23">
+        <v>1250</v>
+      </c>
+      <c r="W23">
+        <v>0.129</v>
+      </c>
+    </row>
+    <row r="24" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G24">
         <v>1200</v>
       </c>
@@ -4029,7 +4274,7 @@
         <v>0.123</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="R24">
@@ -4038,8 +4283,18 @@
       <c r="S24">
         <v>0.76800000000000002</v>
       </c>
-    </row>
-    <row r="25" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="U24">
+        <f t="shared" si="1"/>
+        <v>-3850</v>
+      </c>
+      <c r="V24">
+        <v>1300</v>
+      </c>
+      <c r="W24">
+        <v>0.13400000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G25">
         <v>1250</v>
       </c>
@@ -4047,7 +4302,7 @@
         <v>0.129</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>400</v>
       </c>
       <c r="R25">
@@ -4056,8 +4311,18 @@
       <c r="S25">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="26" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="U25">
+        <f t="shared" si="1"/>
+        <v>-3800</v>
+      </c>
+      <c r="V25">
+        <v>1350</v>
+      </c>
+      <c r="W25">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G26">
         <v>1300</v>
       </c>
@@ -4065,7 +4330,7 @@
         <v>0.13400000000000001</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>600</v>
       </c>
       <c r="R26">
@@ -4074,8 +4339,18 @@
       <c r="S26">
         <v>0.71899999999999997</v>
       </c>
-    </row>
-    <row r="27" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="U26">
+        <f t="shared" si="1"/>
+        <v>-3750</v>
+      </c>
+      <c r="V26">
+        <v>1400</v>
+      </c>
+      <c r="W26">
+        <v>0.14899999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G27">
         <v>1350</v>
       </c>
@@ -4092,8 +4367,18 @@
       <c r="S27">
         <v>0.67600000000000005</v>
       </c>
-    </row>
-    <row r="28" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="U27">
+        <f t="shared" si="1"/>
+        <v>-3700</v>
+      </c>
+      <c r="V27">
+        <v>1450</v>
+      </c>
+      <c r="W27">
+        <v>0.159</v>
+      </c>
+    </row>
+    <row r="28" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G28">
         <v>1400</v>
       </c>
@@ -4101,7 +4386,7 @@
         <v>0.14899999999999999</v>
       </c>
       <c r="Q28">
-        <f t="shared" ref="Q28:Q40" si="3">R28-R$23</f>
+        <f t="shared" ref="Q28:Q40" si="4">R28-R$23</f>
         <v>1000</v>
       </c>
       <c r="R28">
@@ -4110,8 +4395,18 @@
       <c r="S28">
         <v>0.627</v>
       </c>
-    </row>
-    <row r="29" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="U28">
+        <f t="shared" si="1"/>
+        <v>-3650</v>
+      </c>
+      <c r="V28">
+        <v>1500</v>
+      </c>
+      <c r="W28">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="29" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G29">
         <v>1450</v>
       </c>
@@ -4119,7 +4414,7 @@
         <v>0.159</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1200</v>
       </c>
       <c r="R29">
@@ -4128,8 +4423,18 @@
       <c r="S29">
         <v>0.56999999999999995</v>
       </c>
-    </row>
-    <row r="30" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="U29">
+        <f t="shared" si="1"/>
+        <v>-3600</v>
+      </c>
+      <c r="V29">
+        <v>1550</v>
+      </c>
+      <c r="W29">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="30" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G30">
         <v>1500</v>
       </c>
@@ -4137,7 +4442,7 @@
         <v>0.17</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1400</v>
       </c>
       <c r="R30">
@@ -4146,8 +4451,18 @@
       <c r="S30">
         <v>0.51300000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="U30">
+        <f t="shared" si="1"/>
+        <v>-3550</v>
+      </c>
+      <c r="V30">
+        <v>1600</v>
+      </c>
+      <c r="W30">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="31" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G31">
         <v>1550</v>
       </c>
@@ -4155,7 +4470,7 @@
         <v>0.18</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1600</v>
       </c>
       <c r="R31">
@@ -4164,8 +4479,18 @@
       <c r="S31">
         <v>0.45100000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="U31">
+        <f t="shared" si="1"/>
+        <v>-3500</v>
+      </c>
+      <c r="V31">
+        <v>1650</v>
+      </c>
+      <c r="W31">
+        <v>0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G32">
         <v>1600</v>
       </c>
@@ -4173,7 +4498,7 @@
         <v>0.19</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1800</v>
       </c>
       <c r="R32">
@@ -4182,8 +4507,18 @@
       <c r="S32">
         <v>0.36299999999999999</v>
       </c>
-    </row>
-    <row r="33" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="U32">
+        <f t="shared" si="1"/>
+        <v>-3450</v>
+      </c>
+      <c r="V32">
+        <v>1700</v>
+      </c>
+      <c r="W32">
+        <v>0.19800000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G33">
         <v>1650</v>
       </c>
@@ -4191,7 +4526,7 @@
         <v>0.19600000000000001</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2000</v>
       </c>
       <c r="R33">
@@ -4200,8 +4535,18 @@
       <c r="S33">
         <v>0.309</v>
       </c>
-    </row>
-    <row r="34" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="U33">
+        <f t="shared" si="1"/>
+        <v>-3400</v>
+      </c>
+      <c r="V33">
+        <v>1750</v>
+      </c>
+      <c r="W33">
+        <v>0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G34">
         <v>1700</v>
       </c>
@@ -4209,7 +4554,7 @@
         <v>0.19800000000000001</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2200</v>
       </c>
       <c r="R34">
@@ -4218,8 +4563,18 @@
       <c r="S34">
         <v>0.26100000000000001</v>
       </c>
-    </row>
-    <row r="35" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="U34">
+        <f t="shared" si="1"/>
+        <v>-3350</v>
+      </c>
+      <c r="V34">
+        <v>1800</v>
+      </c>
+      <c r="W34">
+        <v>0.19400000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G35">
         <v>1750</v>
       </c>
@@ -4227,7 +4582,7 @@
         <v>0.19600000000000001</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2400</v>
       </c>
       <c r="R35">
@@ -4236,8 +4591,18 @@
       <c r="S35">
         <v>0.223</v>
       </c>
-    </row>
-    <row r="36" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="U35">
+        <f t="shared" si="1"/>
+        <v>-3300</v>
+      </c>
+      <c r="V35">
+        <v>1850</v>
+      </c>
+      <c r="W35">
+        <v>0.19400000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G36">
         <v>1800</v>
       </c>
@@ -4245,7 +4610,7 @@
         <v>0.19400000000000001</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2600</v>
       </c>
       <c r="R36">
@@ -4254,8 +4619,18 @@
       <c r="S36">
         <v>0.19800000000000001</v>
       </c>
-    </row>
-    <row r="37" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="U36">
+        <f t="shared" si="1"/>
+        <v>-3250</v>
+      </c>
+      <c r="V36">
+        <v>1900</v>
+      </c>
+      <c r="W36">
+        <v>0.20399999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G37">
         <v>1850</v>
       </c>
@@ -4263,7 +4638,7 @@
         <v>0.19400000000000001</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2800</v>
       </c>
       <c r="R37">
@@ -4272,8 +4647,18 @@
       <c r="S37">
         <v>0.185</v>
       </c>
-    </row>
-    <row r="38" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="U37">
+        <f t="shared" si="1"/>
+        <v>-3200</v>
+      </c>
+      <c r="V37">
+        <v>1950</v>
+      </c>
+      <c r="W37">
+        <v>0.222</v>
+      </c>
+    </row>
+    <row r="38" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G38">
         <v>1900</v>
       </c>
@@ -4281,7 +4666,7 @@
         <v>0.20399999999999999</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3000</v>
       </c>
       <c r="R38">
@@ -4290,8 +4675,18 @@
       <c r="S38">
         <v>0.184</v>
       </c>
-    </row>
-    <row r="39" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="U38">
+        <f t="shared" si="1"/>
+        <v>-3150</v>
+      </c>
+      <c r="V38">
+        <v>2000</v>
+      </c>
+      <c r="W38">
+        <v>0.252</v>
+      </c>
+    </row>
+    <row r="39" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G39">
         <v>1950</v>
       </c>
@@ -4299,7 +4694,7 @@
         <v>0.222</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3200</v>
       </c>
       <c r="R39">
@@ -4308,8 +4703,18 @@
       <c r="S39">
         <v>0.17499999999999999</v>
       </c>
-    </row>
-    <row r="40" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="U39">
+        <f t="shared" si="1"/>
+        <v>-3100</v>
+      </c>
+      <c r="V39">
+        <v>2050</v>
+      </c>
+      <c r="W39">
+        <v>0.30299999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G40">
         <v>2000</v>
       </c>
@@ -4317,7 +4722,7 @@
         <v>0.252</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3400</v>
       </c>
       <c r="R40">
@@ -4326,1272 +4731,2863 @@
       <c r="S40">
         <v>0.20899999999999999</v>
       </c>
-    </row>
-    <row r="41" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="U40">
+        <f t="shared" si="1"/>
+        <v>-3050</v>
+      </c>
+      <c r="V40">
+        <v>2100</v>
+      </c>
+      <c r="W40">
+        <v>0.36199999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G41">
         <v>2050</v>
       </c>
       <c r="L41">
         <v>0.30299999999999999</v>
       </c>
-    </row>
-    <row r="42" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="U41">
+        <f t="shared" si="1"/>
+        <v>-3000</v>
+      </c>
+      <c r="V41">
+        <v>2150</v>
+      </c>
+      <c r="W41">
+        <v>0.42099999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G42">
         <v>2100</v>
       </c>
       <c r="L42">
         <v>0.36199999999999999</v>
       </c>
-    </row>
-    <row r="43" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="U42">
+        <f t="shared" si="1"/>
+        <v>-2950</v>
+      </c>
+      <c r="V42">
+        <v>2200</v>
+      </c>
+      <c r="W42">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="43" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G43">
         <v>2150</v>
       </c>
       <c r="L43">
         <v>0.42099999999999999</v>
       </c>
-    </row>
-    <row r="44" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="U43">
+        <f t="shared" si="1"/>
+        <v>-2900</v>
+      </c>
+      <c r="V43">
+        <v>2250</v>
+      </c>
+      <c r="W43">
+        <v>0.51200000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G44">
         <v>2200</v>
       </c>
       <c r="L44">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="45" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="U44">
+        <f t="shared" si="1"/>
+        <v>-2850</v>
+      </c>
+      <c r="V44">
+        <v>2300</v>
+      </c>
+      <c r="W44">
+        <v>0.52400000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G45">
         <v>2250</v>
       </c>
       <c r="L45">
         <v>0.51200000000000001</v>
       </c>
-    </row>
-    <row r="46" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="U45">
+        <f t="shared" si="1"/>
+        <v>-2800</v>
+      </c>
+      <c r="V45">
+        <v>2350</v>
+      </c>
+      <c r="W45">
+        <v>0.50600000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G46">
         <v>2300</v>
       </c>
       <c r="L46">
         <v>0.52400000000000002</v>
       </c>
-    </row>
-    <row r="47" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="U46">
+        <f t="shared" si="1"/>
+        <v>-2750</v>
+      </c>
+      <c r="V46">
+        <v>2400</v>
+      </c>
+      <c r="W46">
+        <v>0.47099999999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G47">
         <v>2350</v>
       </c>
       <c r="L47">
         <v>0.50600000000000001</v>
       </c>
-    </row>
-    <row r="48" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="U47">
+        <f t="shared" si="1"/>
+        <v>-2700</v>
+      </c>
+      <c r="V47">
+        <v>2450</v>
+      </c>
+      <c r="W47">
+        <v>0.41899999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G48">
         <v>2400</v>
       </c>
       <c r="L48">
         <v>0.47099999999999997</v>
       </c>
-    </row>
-    <row r="49" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U48">
+        <f t="shared" si="1"/>
+        <v>-2650</v>
+      </c>
+      <c r="V48">
+        <v>2500</v>
+      </c>
+      <c r="W48">
+        <v>0.35799999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G49">
         <v>2450</v>
       </c>
       <c r="L49">
         <v>0.41899999999999998</v>
       </c>
-    </row>
-    <row r="50" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U49">
+        <f t="shared" si="1"/>
+        <v>-2600</v>
+      </c>
+      <c r="V49">
+        <v>2550</v>
+      </c>
+      <c r="W49">
+        <v>0.313</v>
+      </c>
+    </row>
+    <row r="50" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G50">
         <v>2500</v>
       </c>
       <c r="L50">
         <v>0.35799999999999998</v>
       </c>
-    </row>
-    <row r="51" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U50">
+        <f t="shared" si="1"/>
+        <v>-2550</v>
+      </c>
+      <c r="V50">
+        <v>2600</v>
+      </c>
+      <c r="W50">
+        <v>0.29699999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G51">
         <v>2550</v>
       </c>
       <c r="L51">
         <v>0.313</v>
       </c>
-    </row>
-    <row r="52" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U51">
+        <f t="shared" si="1"/>
+        <v>-2500</v>
+      </c>
+      <c r="V51">
+        <v>2650</v>
+      </c>
+      <c r="W51">
+        <v>0.32100000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G52">
         <v>2600</v>
       </c>
       <c r="L52">
         <v>0.29699999999999999</v>
       </c>
-    </row>
-    <row r="53" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U52">
+        <f t="shared" si="1"/>
+        <v>-2450</v>
+      </c>
+      <c r="V52">
+        <v>2700</v>
+      </c>
+      <c r="W52">
+        <v>0.39100000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G53">
         <v>2650</v>
       </c>
       <c r="L53">
         <v>0.32100000000000001</v>
       </c>
-    </row>
-    <row r="54" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U53">
+        <f t="shared" si="1"/>
+        <v>-2400</v>
+      </c>
+      <c r="V53">
+        <v>2750</v>
+      </c>
+      <c r="W53">
+        <v>0.51400000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G54">
         <v>2700</v>
       </c>
       <c r="L54">
         <v>0.39100000000000001</v>
       </c>
-    </row>
-    <row r="55" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U54">
+        <f t="shared" si="1"/>
+        <v>-2350</v>
+      </c>
+      <c r="V54">
+        <v>2800</v>
+      </c>
+      <c r="W54">
+        <v>0.64800000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G55">
         <v>2750</v>
       </c>
       <c r="L55">
         <v>0.51400000000000001</v>
       </c>
-    </row>
-    <row r="56" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U55">
+        <f t="shared" si="1"/>
+        <v>-2300</v>
+      </c>
+      <c r="V55">
+        <v>2850</v>
+      </c>
+      <c r="W55">
+        <v>0.81299999999999994</v>
+      </c>
+    </row>
+    <row r="56" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G56">
         <v>2800</v>
       </c>
       <c r="L56">
         <v>0.64800000000000002</v>
       </c>
-    </row>
-    <row r="57" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U56">
+        <f t="shared" si="1"/>
+        <v>-2250</v>
+      </c>
+      <c r="V56">
+        <v>2900</v>
+      </c>
+      <c r="W56">
+        <v>0.95499999999999996</v>
+      </c>
+    </row>
+    <row r="57" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G57">
         <v>2850</v>
       </c>
       <c r="L57">
         <v>0.81299999999999994</v>
       </c>
-    </row>
-    <row r="58" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U57">
+        <f t="shared" si="1"/>
+        <v>-2200</v>
+      </c>
+      <c r="V57">
+        <v>2950</v>
+      </c>
+      <c r="W57">
+        <v>1.0580000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G58">
         <v>2900</v>
       </c>
       <c r="L58">
         <v>0.95499999999999996</v>
       </c>
-    </row>
-    <row r="59" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U58">
+        <f t="shared" si="1"/>
+        <v>-2150</v>
+      </c>
+      <c r="V58">
+        <v>3000</v>
+      </c>
+      <c r="W58">
+        <v>1.1060000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G59">
         <v>2950</v>
       </c>
       <c r="L59">
         <v>1.0580000000000001</v>
       </c>
-    </row>
-    <row r="60" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U59">
+        <f t="shared" si="1"/>
+        <v>-2100</v>
+      </c>
+      <c r="V59">
+        <v>3050</v>
+      </c>
+      <c r="W59">
+        <v>1.0760000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G60">
         <v>3000</v>
       </c>
       <c r="L60">
         <v>1.1060000000000001</v>
       </c>
-    </row>
-    <row r="61" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U60">
+        <f t="shared" si="1"/>
+        <v>-2050</v>
+      </c>
+      <c r="V60">
+        <v>3100</v>
+      </c>
+      <c r="W60">
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G61">
         <v>3050</v>
       </c>
       <c r="L61">
         <v>1.0760000000000001</v>
       </c>
-    </row>
-    <row r="62" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U61">
+        <f t="shared" si="1"/>
+        <v>-2000</v>
+      </c>
+      <c r="V61">
+        <v>3150</v>
+      </c>
+      <c r="W61">
+        <v>0.86699999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G62">
         <v>3100</v>
       </c>
       <c r="L62">
         <v>0.99199999999999999</v>
       </c>
-    </row>
-    <row r="63" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U62">
+        <f t="shared" si="1"/>
+        <v>-1950</v>
+      </c>
+      <c r="V62">
+        <v>3200</v>
+      </c>
+      <c r="W62">
+        <v>0.68600000000000005</v>
+      </c>
+    </row>
+    <row r="63" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G63">
         <v>3150</v>
       </c>
       <c r="L63">
         <v>0.86699999999999999</v>
       </c>
-    </row>
-    <row r="64" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U63">
+        <f t="shared" si="1"/>
+        <v>-1900</v>
+      </c>
+      <c r="V63">
+        <v>3250</v>
+      </c>
+      <c r="W63">
+        <v>0.53500000000000003</v>
+      </c>
+    </row>
+    <row r="64" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G64">
         <v>3200</v>
       </c>
       <c r="L64">
         <v>0.68600000000000005</v>
       </c>
-    </row>
-    <row r="65" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U64">
+        <f t="shared" si="1"/>
+        <v>-1850</v>
+      </c>
+      <c r="V64">
+        <v>3300</v>
+      </c>
+      <c r="W64">
+        <v>0.42499999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G65">
         <v>3250</v>
       </c>
       <c r="L65">
         <v>0.53500000000000003</v>
       </c>
-    </row>
-    <row r="66" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U65">
+        <f t="shared" si="1"/>
+        <v>-1800</v>
+      </c>
+      <c r="V65">
+        <v>3350</v>
+      </c>
+      <c r="W65">
+        <v>0.40300000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G66">
         <v>3300</v>
       </c>
       <c r="L66">
         <v>0.42499999999999999</v>
       </c>
-    </row>
-    <row r="67" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U66">
+        <f t="shared" ref="U66:U92" si="5">V66-V$101</f>
+        <v>-1750</v>
+      </c>
+      <c r="V66">
+        <v>3400</v>
+      </c>
+      <c r="W66">
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G67">
         <v>3350</v>
       </c>
       <c r="L67">
         <v>0.40300000000000002</v>
       </c>
-    </row>
-    <row r="68" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U67">
+        <f t="shared" si="5"/>
+        <v>-1700</v>
+      </c>
+      <c r="V67">
+        <v>3450</v>
+      </c>
+      <c r="W67">
+        <v>0.63100000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G68">
         <v>3400</v>
       </c>
       <c r="L68">
         <v>0.48699999999999999</v>
       </c>
-    </row>
-    <row r="69" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U68">
+        <f t="shared" si="5"/>
+        <v>-1650</v>
+      </c>
+      <c r="V68">
+        <v>3500</v>
+      </c>
+      <c r="W68">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="69" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G69">
         <v>3450</v>
       </c>
       <c r="L69">
         <v>0.63100000000000001</v>
       </c>
-    </row>
-    <row r="70" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U69">
+        <f t="shared" si="5"/>
+        <v>-1600</v>
+      </c>
+      <c r="V69">
+        <v>3550</v>
+      </c>
+      <c r="W69">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="70" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G70">
         <v>3500</v>
       </c>
       <c r="L70">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="71" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U70">
+        <f t="shared" si="5"/>
+        <v>-1550</v>
+      </c>
+      <c r="V70">
+        <v>3600</v>
+      </c>
+      <c r="W70">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="71" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G71">
         <v>3550</v>
       </c>
       <c r="L71">
         <v>1.18</v>
       </c>
-    </row>
-    <row r="72" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U71">
+        <f t="shared" si="5"/>
+        <v>-1500</v>
+      </c>
+      <c r="V71">
+        <v>3650</v>
+      </c>
+      <c r="W71">
+        <v>1.6519999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G72">
         <v>3600</v>
       </c>
       <c r="L72">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="73" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U72">
+        <f t="shared" si="5"/>
+        <v>-1450</v>
+      </c>
+      <c r="V72">
+        <v>3700</v>
+      </c>
+      <c r="W72">
+        <v>1.7789999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G73">
         <v>3650</v>
       </c>
       <c r="L73">
         <v>1.6519999999999999</v>
       </c>
-    </row>
-    <row r="74" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U73">
+        <f t="shared" si="5"/>
+        <v>-1400</v>
+      </c>
+      <c r="V73">
+        <v>3750</v>
+      </c>
+      <c r="W73">
+        <v>1.786</v>
+      </c>
+    </row>
+    <row r="74" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G74">
         <v>3700</v>
       </c>
       <c r="L74">
         <v>1.7789999999999999</v>
       </c>
-    </row>
-    <row r="75" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U74">
+        <f t="shared" si="5"/>
+        <v>-1350</v>
+      </c>
+      <c r="V74">
+        <v>3800</v>
+      </c>
+      <c r="W74">
+        <v>1.673</v>
+      </c>
+    </row>
+    <row r="75" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G75">
         <v>3750</v>
       </c>
       <c r="L75">
         <v>1.786</v>
       </c>
-    </row>
-    <row r="76" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U75">
+        <f t="shared" si="5"/>
+        <v>-1300</v>
+      </c>
+      <c r="V75">
+        <v>3850</v>
+      </c>
+      <c r="W75">
+        <v>1.4390000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G76">
         <v>3800</v>
       </c>
       <c r="L76">
         <v>1.673</v>
       </c>
-    </row>
-    <row r="77" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U76">
+        <f t="shared" si="5"/>
+        <v>-1250</v>
+      </c>
+      <c r="V76">
+        <v>3900</v>
+      </c>
+      <c r="W76">
+        <v>1.175</v>
+      </c>
+    </row>
+    <row r="77" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G77">
         <v>3850</v>
       </c>
       <c r="L77">
         <v>1.4390000000000001</v>
       </c>
-    </row>
-    <row r="78" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U77">
+        <f t="shared" si="5"/>
+        <v>-1200</v>
+      </c>
+      <c r="V77">
+        <v>3950</v>
+      </c>
+      <c r="W77">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="78" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G78">
         <v>3900</v>
       </c>
       <c r="L78">
         <v>1.175</v>
       </c>
-    </row>
-    <row r="79" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U78">
+        <f t="shared" si="5"/>
+        <v>-1150</v>
+      </c>
+      <c r="V78">
+        <v>4000</v>
+      </c>
+      <c r="W78">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="79" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G79">
         <v>3950</v>
       </c>
       <c r="L79">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="80" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U79">
+        <f t="shared" si="5"/>
+        <v>-1100</v>
+      </c>
+      <c r="V79">
+        <v>4050</v>
+      </c>
+      <c r="W79">
+        <v>0.48399999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G80">
         <v>4000</v>
       </c>
       <c r="L80">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="81" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U80">
+        <f t="shared" si="5"/>
+        <v>-1050</v>
+      </c>
+      <c r="V80">
+        <v>4100</v>
+      </c>
+      <c r="W80">
+        <v>0.48399999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G81">
         <v>4050</v>
       </c>
       <c r="L81">
         <v>0.48399999999999999</v>
       </c>
-    </row>
-    <row r="82" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U81">
+        <f t="shared" si="5"/>
+        <v>-1000</v>
+      </c>
+      <c r="V81">
+        <v>4150</v>
+      </c>
+      <c r="W81">
+        <v>0.61799999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G82">
         <v>4100</v>
       </c>
       <c r="L82">
         <v>0.48399999999999999</v>
       </c>
-    </row>
-    <row r="83" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U82">
+        <f t="shared" si="5"/>
+        <v>-950</v>
+      </c>
+      <c r="V82">
+        <v>4200</v>
+      </c>
+      <c r="W82">
+        <v>0.92600000000000005</v>
+      </c>
+    </row>
+    <row r="83" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G83">
         <v>4150</v>
       </c>
       <c r="L83">
         <v>0.61799999999999999</v>
       </c>
-    </row>
-    <row r="84" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U83">
+        <f t="shared" si="5"/>
+        <v>-900</v>
+      </c>
+      <c r="V83">
+        <v>4250</v>
+      </c>
+      <c r="W83">
+        <v>1.264</v>
+      </c>
+    </row>
+    <row r="84" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G84">
         <v>4200</v>
       </c>
       <c r="L84">
         <v>0.92600000000000005</v>
       </c>
-    </row>
-    <row r="85" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U84">
+        <f t="shared" si="5"/>
+        <v>-850</v>
+      </c>
+      <c r="V84">
+        <v>4300</v>
+      </c>
+      <c r="W84">
+        <v>1.679</v>
+      </c>
+    </row>
+    <row r="85" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G85">
         <v>4250</v>
       </c>
       <c r="L85">
         <v>1.264</v>
       </c>
-    </row>
-    <row r="86" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U85">
+        <f t="shared" si="5"/>
+        <v>-800</v>
+      </c>
+      <c r="V85">
+        <v>4350</v>
+      </c>
+      <c r="W85">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="86" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G86">
         <v>4300</v>
       </c>
       <c r="L86">
         <v>1.679</v>
       </c>
-    </row>
-    <row r="87" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U86">
+        <f t="shared" si="5"/>
+        <v>-750</v>
+      </c>
+      <c r="V86">
+        <v>4400</v>
+      </c>
+      <c r="W86">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G87">
         <v>4350</v>
       </c>
       <c r="L87">
         <v>2.08</v>
       </c>
-    </row>
-    <row r="88" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U87">
+        <f t="shared" si="5"/>
+        <v>-700</v>
+      </c>
+      <c r="V87">
+        <v>4450</v>
+      </c>
+      <c r="W87">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="88" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G88">
         <v>4400</v>
       </c>
       <c r="L88">
         <v>2.3199999999999998</v>
       </c>
-    </row>
-    <row r="89" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U88">
+        <f t="shared" si="5"/>
+        <v>-650</v>
+      </c>
+      <c r="V88">
+        <v>4500</v>
+      </c>
+      <c r="W88">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="89" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G89">
         <v>4450</v>
       </c>
       <c r="L89">
         <v>2.41</v>
       </c>
-    </row>
-    <row r="90" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U89">
+        <f t="shared" si="5"/>
+        <v>-600</v>
+      </c>
+      <c r="V89">
+        <v>4550</v>
+      </c>
+      <c r="W89">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G90">
         <v>4500</v>
       </c>
       <c r="L90">
         <v>2.31</v>
       </c>
-    </row>
-    <row r="91" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U90">
+        <f t="shared" si="5"/>
+        <v>-550</v>
+      </c>
+      <c r="V90">
+        <v>4600</v>
+      </c>
+      <c r="W90">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="91" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G91">
         <v>4550</v>
       </c>
       <c r="L91">
         <v>2.0699999999999998</v>
       </c>
-    </row>
-    <row r="92" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U91">
+        <f t="shared" si="5"/>
+        <v>-500</v>
+      </c>
+      <c r="V91">
+        <v>4650</v>
+      </c>
+      <c r="W91">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="92" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G92">
         <v>4600</v>
       </c>
       <c r="L92">
         <v>1.72</v>
       </c>
-    </row>
-    <row r="93" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U92">
+        <f t="shared" si="5"/>
+        <v>-450</v>
+      </c>
+      <c r="V92">
+        <v>4700</v>
+      </c>
+      <c r="W92">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="93" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G93">
         <v>4650</v>
       </c>
       <c r="L93">
         <v>1.23</v>
       </c>
-    </row>
-    <row r="94" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U93">
+        <f t="shared" ref="U93:U99" si="6">V93-V$101</f>
+        <v>-400</v>
+      </c>
+      <c r="V93">
+        <v>4750</v>
+      </c>
+      <c r="W93">
+        <v>0.57199999999999995</v>
+      </c>
+    </row>
+    <row r="94" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G94">
         <v>4700</v>
       </c>
       <c r="L94">
         <v>0.84</v>
       </c>
-    </row>
-    <row r="95" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U94">
+        <f t="shared" si="6"/>
+        <v>-350</v>
+      </c>
+      <c r="V94">
+        <v>4800</v>
+      </c>
+      <c r="W94">
+        <v>0.48499999999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G95">
         <v>4750</v>
       </c>
       <c r="L95">
         <v>0.57199999999999995</v>
       </c>
-    </row>
-    <row r="96" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U95">
+        <f t="shared" si="6"/>
+        <v>-300</v>
+      </c>
+      <c r="V95">
+        <v>4850</v>
+      </c>
+      <c r="W95">
+        <v>0.54100000000000004</v>
+      </c>
+    </row>
+    <row r="96" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G96">
         <v>4800</v>
       </c>
       <c r="L96">
         <v>0.48499999999999999</v>
       </c>
-    </row>
-    <row r="97" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U96">
+        <f t="shared" si="6"/>
+        <v>-250</v>
+      </c>
+      <c r="V96">
+        <v>4900</v>
+      </c>
+      <c r="W96">
+        <v>0.77100000000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="7:24" x14ac:dyDescent="0.25">
       <c r="G97">
         <v>4850</v>
       </c>
       <c r="L97">
         <v>0.54100000000000004</v>
       </c>
-    </row>
-    <row r="98" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U97">
+        <f t="shared" si="6"/>
+        <v>-200</v>
+      </c>
+      <c r="V97">
+        <v>4950</v>
+      </c>
+      <c r="W97">
+        <v>1.175</v>
+      </c>
+    </row>
+    <row r="98" spans="7:24" x14ac:dyDescent="0.25">
       <c r="G98">
         <v>4900</v>
       </c>
       <c r="L98">
         <v>0.77100000000000002</v>
       </c>
-    </row>
-    <row r="99" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U98">
+        <f t="shared" si="6"/>
+        <v>-150</v>
+      </c>
+      <c r="V98">
+        <v>5000</v>
+      </c>
+      <c r="W98">
+        <v>1.589</v>
+      </c>
+    </row>
+    <row r="99" spans="7:24" x14ac:dyDescent="0.25">
       <c r="G99">
         <v>4950</v>
       </c>
       <c r="L99">
         <v>1.175</v>
       </c>
-    </row>
-    <row r="100" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U99">
+        <f t="shared" si="6"/>
+        <v>-100</v>
+      </c>
+      <c r="V99">
+        <v>5050</v>
+      </c>
+      <c r="W99">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="100" spans="7:24" x14ac:dyDescent="0.25">
       <c r="G100">
         <v>5000</v>
       </c>
       <c r="L100">
         <v>1.589</v>
       </c>
-    </row>
-    <row r="101" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U100">
+        <f>V100-V$101</f>
+        <v>-50</v>
+      </c>
+      <c r="V100">
+        <v>5100</v>
+      </c>
+      <c r="W100">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="101" spans="7:24" x14ac:dyDescent="0.25">
       <c r="G101">
         <v>5050</v>
       </c>
       <c r="L101">
         <v>2.06</v>
       </c>
-    </row>
-    <row r="102" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U101">
+        <f t="shared" ref="U101:U164" si="7">V101-V$101</f>
+        <v>0</v>
+      </c>
+      <c r="V101">
+        <v>5150</v>
+      </c>
+      <c r="W101">
+        <v>2.64</v>
+      </c>
+      <c r="X101" s="1"/>
+    </row>
+    <row r="102" spans="7:24" x14ac:dyDescent="0.25">
       <c r="G102">
         <v>5100</v>
       </c>
       <c r="L102">
         <v>2.4500000000000002</v>
       </c>
-    </row>
-    <row r="103" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U102">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="V102">
+        <v>5200</v>
+      </c>
+      <c r="W102">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="103" spans="7:24" x14ac:dyDescent="0.25">
       <c r="G103">
         <v>5150</v>
       </c>
       <c r="L103">
         <v>2.64</v>
       </c>
-    </row>
-    <row r="104" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U103">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="V103">
+        <v>5250</v>
+      </c>
+      <c r="W103">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="104" spans="7:24" x14ac:dyDescent="0.25">
       <c r="G104">
         <v>5200</v>
       </c>
       <c r="L104">
         <v>2.62</v>
       </c>
-    </row>
-    <row r="105" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U104">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
+      <c r="V104">
+        <v>5300</v>
+      </c>
+      <c r="W104">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="105" spans="7:24" x14ac:dyDescent="0.25">
       <c r="G105">
         <v>5250</v>
       </c>
       <c r="L105">
         <v>2.4300000000000002</v>
       </c>
-    </row>
-    <row r="106" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U105">
+        <f t="shared" si="7"/>
+        <v>200</v>
+      </c>
+      <c r="V105">
+        <v>5350</v>
+      </c>
+      <c r="W105">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="106" spans="7:24" x14ac:dyDescent="0.25">
       <c r="G106">
         <v>5300</v>
       </c>
       <c r="L106">
         <v>2.06</v>
       </c>
-    </row>
-    <row r="107" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U106">
+        <f t="shared" si="7"/>
+        <v>250</v>
+      </c>
+      <c r="V106">
+        <v>5400</v>
+      </c>
+      <c r="W106">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="7:24" x14ac:dyDescent="0.25">
       <c r="G107">
         <v>5350</v>
       </c>
       <c r="L107">
         <v>1.57</v>
       </c>
-    </row>
-    <row r="108" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U107">
+        <f t="shared" si="7"/>
+        <v>300</v>
+      </c>
+      <c r="V107">
+        <v>5450</v>
+      </c>
+      <c r="W107">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="108" spans="7:24" x14ac:dyDescent="0.25">
       <c r="G108">
         <v>5400</v>
       </c>
       <c r="L108">
         <v>1.1499999999999999</v>
       </c>
-    </row>
-    <row r="109" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U108">
+        <f t="shared" si="7"/>
+        <v>350</v>
+      </c>
+      <c r="V108">
+        <v>5500</v>
+      </c>
+      <c r="W108">
+        <v>0.53500000000000003</v>
+      </c>
+    </row>
+    <row r="109" spans="7:24" x14ac:dyDescent="0.25">
       <c r="G109">
         <v>5450</v>
       </c>
       <c r="L109">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="110" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U109">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
+      <c r="V109">
+        <v>5550</v>
+      </c>
+      <c r="W109">
+        <v>0.45300000000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="7:24" x14ac:dyDescent="0.25">
       <c r="G110">
         <v>5500</v>
       </c>
       <c r="L110">
         <v>0.53500000000000003</v>
       </c>
-    </row>
-    <row r="111" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U110">
+        <f t="shared" si="7"/>
+        <v>450</v>
+      </c>
+      <c r="V110">
+        <v>5600</v>
+      </c>
+      <c r="W110">
+        <v>0.56699999999999995</v>
+      </c>
+    </row>
+    <row r="111" spans="7:24" x14ac:dyDescent="0.25">
       <c r="G111">
         <v>5550</v>
       </c>
       <c r="L111">
         <v>0.45300000000000001</v>
       </c>
-    </row>
-    <row r="112" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U111">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="V111">
+        <v>5650</v>
+      </c>
+      <c r="W111">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="112" spans="7:24" x14ac:dyDescent="0.25">
       <c r="G112">
         <v>5600</v>
       </c>
       <c r="L112">
         <v>0.56699999999999995</v>
       </c>
-    </row>
-    <row r="113" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U112">
+        <f t="shared" si="7"/>
+        <v>550</v>
+      </c>
+      <c r="V112">
+        <v>5700</v>
+      </c>
+      <c r="W112">
+        <v>1.296</v>
+      </c>
+    </row>
+    <row r="113" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G113">
         <v>5650</v>
       </c>
       <c r="L113">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="114" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U113">
+        <f t="shared" si="7"/>
+        <v>600</v>
+      </c>
+      <c r="V113">
+        <v>5750</v>
+      </c>
+      <c r="W113">
+        <v>1.677</v>
+      </c>
+    </row>
+    <row r="114" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G114">
         <v>5700</v>
       </c>
       <c r="L114">
         <v>1.296</v>
       </c>
-    </row>
-    <row r="115" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U114">
+        <f t="shared" si="7"/>
+        <v>650</v>
+      </c>
+      <c r="V114">
+        <v>5800</v>
+      </c>
+      <c r="W114">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="115" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G115">
         <v>5750</v>
       </c>
       <c r="L115">
         <v>1.677</v>
       </c>
-    </row>
-    <row r="116" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U115">
+        <f t="shared" si="7"/>
+        <v>700</v>
+      </c>
+      <c r="V115">
+        <v>5850</v>
+      </c>
+      <c r="W115">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="116" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G116">
         <v>5800</v>
       </c>
       <c r="L116">
         <v>2.08</v>
       </c>
-    </row>
-    <row r="117" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U116">
+        <f t="shared" si="7"/>
+        <v>750</v>
+      </c>
+      <c r="V116">
+        <v>5900</v>
+      </c>
+      <c r="W116">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="117" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G117">
         <v>5850</v>
       </c>
       <c r="L117">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="118" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U117">
+        <f t="shared" si="7"/>
+        <v>800</v>
+      </c>
+      <c r="V117">
+        <v>5950</v>
+      </c>
+      <c r="W117">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="118" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G118">
         <v>5900</v>
       </c>
       <c r="L118">
         <v>2.4300000000000002</v>
       </c>
-    </row>
-    <row r="119" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U118">
+        <f t="shared" si="7"/>
+        <v>850</v>
+      </c>
+      <c r="V118">
+        <v>6000</v>
+      </c>
+      <c r="W118">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="119" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G119">
         <v>5950</v>
       </c>
       <c r="L119">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="120" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U119">
+        <f t="shared" si="7"/>
+        <v>900</v>
+      </c>
+      <c r="V119">
+        <v>6050</v>
+      </c>
+      <c r="W119">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="120" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G120">
         <v>6000</v>
       </c>
       <c r="L120">
         <v>2.06</v>
       </c>
-    </row>
-    <row r="121" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U120">
+        <f t="shared" si="7"/>
+        <v>950</v>
+      </c>
+      <c r="V120">
+        <v>6100</v>
+      </c>
+      <c r="W120">
+        <v>1.363</v>
+      </c>
+    </row>
+    <row r="121" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G121">
         <v>6050</v>
       </c>
       <c r="L121">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="122" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U121">
+        <f t="shared" si="7"/>
+        <v>1000</v>
+      </c>
+      <c r="V121">
+        <v>6150</v>
+      </c>
+      <c r="W121">
+        <v>0.89900000000000002</v>
+      </c>
+    </row>
+    <row r="122" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G122">
         <v>6100</v>
       </c>
       <c r="L122">
         <v>1.363</v>
       </c>
-    </row>
-    <row r="123" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U122">
+        <f t="shared" si="7"/>
+        <v>1050</v>
+      </c>
+      <c r="V122">
+        <v>6200</v>
+      </c>
+      <c r="W122">
+        <v>0.57699999999999996</v>
+      </c>
+    </row>
+    <row r="123" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G123">
         <v>6150</v>
       </c>
       <c r="L123">
         <v>0.89900000000000002</v>
       </c>
-    </row>
-    <row r="124" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U123">
+        <f t="shared" si="7"/>
+        <v>1100</v>
+      </c>
+      <c r="V123">
+        <v>6250</v>
+      </c>
+      <c r="W123">
+        <v>0.40300000000000002</v>
+      </c>
+    </row>
+    <row r="124" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G124">
         <v>6200</v>
       </c>
       <c r="L124">
         <v>0.57699999999999996</v>
       </c>
-    </row>
-    <row r="125" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U124">
+        <f t="shared" si="7"/>
+        <v>1150</v>
+      </c>
+      <c r="V124">
+        <v>6300</v>
+      </c>
+      <c r="W124">
+        <v>0.40699999999999997</v>
+      </c>
+    </row>
+    <row r="125" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G125">
         <v>6250</v>
       </c>
       <c r="L125">
         <v>0.40300000000000002</v>
       </c>
-    </row>
-    <row r="126" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U125">
+        <f t="shared" si="7"/>
+        <v>1200</v>
+      </c>
+      <c r="V125">
+        <v>6350</v>
+      </c>
+      <c r="W125">
+        <v>0.51900000000000002</v>
+      </c>
+    </row>
+    <row r="126" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G126">
         <v>6300</v>
       </c>
       <c r="L126">
         <v>0.40699999999999997</v>
       </c>
-    </row>
-    <row r="127" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U126">
+        <f t="shared" si="7"/>
+        <v>1250</v>
+      </c>
+      <c r="V126">
+        <v>6400</v>
+      </c>
+      <c r="W126">
+        <v>0.75800000000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G127">
         <v>6350</v>
       </c>
       <c r="L127">
         <v>0.51900000000000002</v>
       </c>
-    </row>
-    <row r="128" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U127">
+        <f t="shared" si="7"/>
+        <v>1300</v>
+      </c>
+      <c r="V127">
+        <v>6450</v>
+      </c>
+      <c r="W127">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="128" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G128">
         <v>6400</v>
       </c>
       <c r="L128">
         <v>0.75800000000000001</v>
       </c>
-    </row>
-    <row r="129" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U128">
+        <f t="shared" si="7"/>
+        <v>1350</v>
+      </c>
+      <c r="V128">
+        <v>6500</v>
+      </c>
+      <c r="W128">
+        <v>1.3740000000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G129">
         <v>6450</v>
       </c>
       <c r="L129">
         <v>1.08</v>
       </c>
-    </row>
-    <row r="130" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U129">
+        <f t="shared" si="7"/>
+        <v>1400</v>
+      </c>
+      <c r="V129">
+        <v>6550</v>
+      </c>
+      <c r="W129">
+        <v>1.6870000000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G130">
         <v>6500</v>
       </c>
       <c r="L130">
         <v>1.3740000000000001</v>
       </c>
-    </row>
-    <row r="131" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U130">
+        <f t="shared" si="7"/>
+        <v>1450</v>
+      </c>
+      <c r="V130">
+        <v>6600</v>
+      </c>
+      <c r="W130">
+        <v>1.8080000000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G131">
         <v>6550</v>
       </c>
       <c r="L131">
         <v>1.6870000000000001</v>
       </c>
-    </row>
-    <row r="132" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U131">
+        <f t="shared" si="7"/>
+        <v>1500</v>
+      </c>
+      <c r="V131">
+        <v>6650</v>
+      </c>
+      <c r="W131">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="132" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G132">
         <v>6600</v>
       </c>
       <c r="L132">
         <v>1.8080000000000001</v>
       </c>
-    </row>
-    <row r="133" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U132">
+        <f t="shared" si="7"/>
+        <v>1550</v>
+      </c>
+      <c r="V132">
+        <v>6700</v>
+      </c>
+      <c r="W132">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="133" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G133">
         <v>6650</v>
       </c>
       <c r="L133">
         <v>1.81</v>
       </c>
-    </row>
-    <row r="134" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U133">
+        <f t="shared" si="7"/>
+        <v>1600</v>
+      </c>
+      <c r="V133">
+        <v>6750</v>
+      </c>
+      <c r="W133">
+        <v>1.4690000000000001</v>
+      </c>
+    </row>
+    <row r="134" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G134">
         <v>6700</v>
       </c>
       <c r="L134">
         <v>1.67</v>
       </c>
-    </row>
-    <row r="135" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U134">
+        <f t="shared" si="7"/>
+        <v>1650</v>
+      </c>
+      <c r="V134">
+        <v>6800</v>
+      </c>
+      <c r="W134">
+        <v>1.1839999999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G135">
         <v>6750</v>
       </c>
       <c r="L135">
         <v>1.4690000000000001</v>
       </c>
-    </row>
-    <row r="136" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U135">
+        <f t="shared" si="7"/>
+        <v>1700</v>
+      </c>
+      <c r="V135">
+        <v>6850</v>
+      </c>
+      <c r="W135">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="136" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G136">
         <v>6800</v>
       </c>
       <c r="L136">
         <v>1.1839999999999999</v>
       </c>
-    </row>
-    <row r="137" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U136">
+        <f t="shared" si="7"/>
+        <v>1750</v>
+      </c>
+      <c r="V136">
+        <v>6900</v>
+      </c>
+      <c r="W136">
+        <v>0.57799999999999996</v>
+      </c>
+    </row>
+    <row r="137" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G137">
         <v>6850</v>
       </c>
       <c r="L137">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="138" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U137">
+        <f t="shared" si="7"/>
+        <v>1800</v>
+      </c>
+      <c r="V137">
+        <v>6950</v>
+      </c>
+      <c r="W137">
+        <v>0.39300000000000002</v>
+      </c>
+    </row>
+    <row r="138" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G138">
         <v>6900</v>
       </c>
       <c r="L138">
         <v>0.57799999999999996</v>
       </c>
-    </row>
-    <row r="139" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U138">
+        <f t="shared" si="7"/>
+        <v>1850</v>
+      </c>
+      <c r="V138">
+        <v>7000</v>
+      </c>
+      <c r="W138">
+        <v>0.29299999999999998</v>
+      </c>
+    </row>
+    <row r="139" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G139">
         <v>6950</v>
       </c>
       <c r="L139">
         <v>0.39300000000000002</v>
       </c>
-    </row>
-    <row r="140" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U139">
+        <f t="shared" si="7"/>
+        <v>1900</v>
+      </c>
+      <c r="V139">
+        <v>7050</v>
+      </c>
+      <c r="W139">
+        <v>0.314</v>
+      </c>
+    </row>
+    <row r="140" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G140">
         <v>7000</v>
       </c>
       <c r="L140">
         <v>0.29299999999999998</v>
       </c>
-    </row>
-    <row r="141" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U140">
+        <f t="shared" si="7"/>
+        <v>1950</v>
+      </c>
+      <c r="V140">
+        <v>7100</v>
+      </c>
+      <c r="W140">
+        <v>0.40400000000000003</v>
+      </c>
+    </row>
+    <row r="141" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G141">
         <v>7050</v>
       </c>
       <c r="L141">
         <v>0.314</v>
       </c>
-    </row>
-    <row r="142" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U141">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+      <c r="V141">
+        <v>7150</v>
+      </c>
+      <c r="W141">
+        <v>0.56699999999999995</v>
+      </c>
+    </row>
+    <row r="142" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G142">
         <v>7100</v>
       </c>
       <c r="L142">
         <v>0.40400000000000003</v>
       </c>
-    </row>
-    <row r="143" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U142">
+        <f t="shared" si="7"/>
+        <v>2050</v>
+      </c>
+      <c r="V142">
+        <v>7200</v>
+      </c>
+      <c r="W142">
+        <v>0.75900000000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G143">
         <v>7150</v>
       </c>
       <c r="L143">
         <v>0.56699999999999995</v>
       </c>
-    </row>
-    <row r="144" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U143">
+        <f t="shared" si="7"/>
+        <v>2100</v>
+      </c>
+      <c r="V143">
+        <v>7250</v>
+      </c>
+      <c r="W143">
+        <v>0.93600000000000005</v>
+      </c>
+    </row>
+    <row r="144" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G144">
         <v>7200</v>
       </c>
       <c r="L144">
         <v>0.75900000000000001</v>
       </c>
-    </row>
-    <row r="145" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U144">
+        <f t="shared" si="7"/>
+        <v>2150</v>
+      </c>
+      <c r="V144">
+        <v>7300</v>
+      </c>
+      <c r="W144">
+        <v>1.0529999999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G145">
         <v>7250</v>
       </c>
       <c r="L145">
         <v>0.93600000000000005</v>
       </c>
-    </row>
-    <row r="146" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U145">
+        <f t="shared" si="7"/>
+        <v>2200</v>
+      </c>
+      <c r="V145">
+        <v>7350</v>
+      </c>
+      <c r="W145">
+        <v>1.091</v>
+      </c>
+    </row>
+    <row r="146" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G146">
         <v>7300</v>
       </c>
       <c r="L146">
         <v>1.0529999999999999</v>
       </c>
-    </row>
-    <row r="147" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U146">
+        <f t="shared" si="7"/>
+        <v>2250</v>
+      </c>
+      <c r="V146">
+        <v>7400</v>
+      </c>
+      <c r="W146">
+        <v>1.069</v>
+      </c>
+    </row>
+    <row r="147" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G147">
         <v>7350</v>
       </c>
       <c r="L147">
         <v>1.091</v>
       </c>
-    </row>
-    <row r="148" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U147">
+        <f t="shared" si="7"/>
+        <v>2300</v>
+      </c>
+      <c r="V147">
+        <v>7450</v>
+      </c>
+      <c r="W147">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="148" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G148">
         <v>7400</v>
       </c>
       <c r="L148">
         <v>1.069</v>
       </c>
-    </row>
-    <row r="149" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U148">
+        <f t="shared" si="7"/>
+        <v>2350</v>
+      </c>
+      <c r="V148">
+        <v>7500</v>
+      </c>
+      <c r="W148">
+        <v>0.79400000000000004</v>
+      </c>
+    </row>
+    <row r="149" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G149">
         <v>7450</v>
       </c>
       <c r="L149">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="150" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U149">
+        <f t="shared" si="7"/>
+        <v>2400</v>
+      </c>
+      <c r="V149">
+        <v>7550</v>
+      </c>
+      <c r="W149">
+        <v>0.626</v>
+      </c>
+    </row>
+    <row r="150" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G150">
         <v>7500</v>
       </c>
       <c r="L150">
         <v>0.79400000000000004</v>
       </c>
-    </row>
-    <row r="151" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U150">
+        <f t="shared" si="7"/>
+        <v>2450</v>
+      </c>
+      <c r="V150">
+        <v>7600</v>
+      </c>
+      <c r="W150">
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="151" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G151">
         <v>7550</v>
       </c>
       <c r="L151">
         <v>0.626</v>
       </c>
-    </row>
-    <row r="152" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U151">
+        <f t="shared" si="7"/>
+        <v>2500</v>
+      </c>
+      <c r="V151">
+        <v>7650</v>
+      </c>
+      <c r="W151">
+        <v>0.33500000000000002</v>
+      </c>
+    </row>
+    <row r="152" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G152">
         <v>7600</v>
       </c>
       <c r="L152">
         <v>0.48699999999999999</v>
       </c>
-    </row>
-    <row r="153" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U152">
+        <f t="shared" si="7"/>
+        <v>2550</v>
+      </c>
+      <c r="V152">
+        <v>7700</v>
+      </c>
+      <c r="W152">
+        <v>0.23699999999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G153">
         <v>7650</v>
       </c>
       <c r="L153">
         <v>0.33500000000000002</v>
       </c>
-    </row>
-    <row r="154" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U153">
+        <f t="shared" si="7"/>
+        <v>2600</v>
+      </c>
+      <c r="V153">
+        <v>7750</v>
+      </c>
+      <c r="W153">
+        <v>0.19700000000000001</v>
+      </c>
+    </row>
+    <row r="154" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G154">
         <v>7700</v>
       </c>
       <c r="L154">
         <v>0.23699999999999999</v>
       </c>
-    </row>
-    <row r="155" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U154">
+        <f t="shared" si="7"/>
+        <v>2650</v>
+      </c>
+      <c r="V154">
+        <v>7800</v>
+      </c>
+      <c r="W154">
+        <v>0.20499999999999999</v>
+      </c>
+    </row>
+    <row r="155" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G155">
         <v>7750</v>
       </c>
       <c r="L155">
         <v>0.19700000000000001</v>
       </c>
-    </row>
-    <row r="156" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U155">
+        <f t="shared" si="7"/>
+        <v>2700</v>
+      </c>
+      <c r="V155">
+        <v>7850</v>
+      </c>
+      <c r="W155">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="156" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G156">
         <v>7800</v>
       </c>
       <c r="L156">
         <v>0.20499999999999999</v>
       </c>
-    </row>
-    <row r="157" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U156">
+        <f t="shared" si="7"/>
+        <v>2750</v>
+      </c>
+      <c r="V156">
+        <v>7900</v>
+      </c>
+      <c r="W156">
+        <v>0.32300000000000001</v>
+      </c>
+    </row>
+    <row r="157" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G157">
         <v>7850</v>
       </c>
       <c r="L157">
         <v>0.255</v>
       </c>
-    </row>
-    <row r="158" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U157">
+        <f t="shared" si="7"/>
+        <v>2800</v>
+      </c>
+      <c r="V157">
+        <v>7950</v>
+      </c>
+      <c r="W157">
+        <v>0.39800000000000002</v>
+      </c>
+    </row>
+    <row r="158" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G158">
         <v>7900</v>
       </c>
       <c r="L158">
         <v>0.32300000000000001</v>
       </c>
-    </row>
-    <row r="159" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U158">
+        <f t="shared" si="7"/>
+        <v>2850</v>
+      </c>
+      <c r="V158">
+        <v>8000</v>
+      </c>
+      <c r="W158">
+        <v>0.45800000000000002</v>
+      </c>
+    </row>
+    <row r="159" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G159">
         <v>7950</v>
       </c>
       <c r="L159">
         <v>0.39800000000000002</v>
       </c>
-    </row>
-    <row r="160" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U159">
+        <f t="shared" si="7"/>
+        <v>2900</v>
+      </c>
+      <c r="V159">
+        <v>8050</v>
+      </c>
+      <c r="W159">
+        <v>0.495</v>
+      </c>
+    </row>
+    <row r="160" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G160">
         <v>8000</v>
       </c>
       <c r="L160">
         <v>0.45800000000000002</v>
       </c>
-    </row>
-    <row r="161" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U160">
+        <f t="shared" si="7"/>
+        <v>2950</v>
+      </c>
+      <c r="V160">
+        <v>8100</v>
+      </c>
+      <c r="W160">
+        <v>0.50800000000000001</v>
+      </c>
+    </row>
+    <row r="161" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G161">
         <v>8050</v>
       </c>
       <c r="L161">
         <v>0.495</v>
       </c>
-    </row>
-    <row r="162" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U161">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="V161">
+        <v>8150</v>
+      </c>
+      <c r="W161">
+        <v>0.48599999999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G162">
         <v>8100</v>
       </c>
       <c r="L162">
         <v>0.50800000000000001</v>
       </c>
-    </row>
-    <row r="163" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U162">
+        <f t="shared" si="7"/>
+        <v>3050</v>
+      </c>
+      <c r="V162">
+        <v>8200</v>
+      </c>
+      <c r="W162">
+        <v>0.437</v>
+      </c>
+    </row>
+    <row r="163" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G163">
         <v>8150</v>
       </c>
       <c r="L163">
         <v>0.48599999999999999</v>
       </c>
-    </row>
-    <row r="164" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U163">
+        <f t="shared" si="7"/>
+        <v>3100</v>
+      </c>
+      <c r="V163">
+        <v>8250</v>
+      </c>
+      <c r="W163">
+        <v>0.39100000000000001</v>
+      </c>
+    </row>
+    <row r="164" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G164">
         <v>8200</v>
       </c>
       <c r="L164">
         <v>0.437</v>
       </c>
-    </row>
-    <row r="165" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U164">
+        <f t="shared" si="7"/>
+        <v>3150</v>
+      </c>
+      <c r="V164">
+        <v>8300</v>
+      </c>
+      <c r="W164">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="165" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G165">
         <v>8250</v>
       </c>
       <c r="L165">
         <v>0.39100000000000001</v>
       </c>
-    </row>
-    <row r="166" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U165">
+        <f t="shared" ref="U165:U198" si="8">V165-V$101</f>
+        <v>3200</v>
+      </c>
+      <c r="V165">
+        <v>8350</v>
+      </c>
+      <c r="W165">
+        <v>0.24399999999999999</v>
+      </c>
+    </row>
+    <row r="166" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G166">
         <v>8300</v>
       </c>
       <c r="L166">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="167" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U166">
+        <f t="shared" si="8"/>
+        <v>3250</v>
+      </c>
+      <c r="V166">
+        <v>8400</v>
+      </c>
+      <c r="W166">
+        <v>0.19800000000000001</v>
+      </c>
+    </row>
+    <row r="167" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G167">
         <v>8350</v>
       </c>
       <c r="L167">
         <v>0.24399999999999999</v>
       </c>
-    </row>
-    <row r="168" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U167">
+        <f t="shared" si="8"/>
+        <v>3300</v>
+      </c>
+      <c r="V167">
+        <v>8450</v>
+      </c>
+      <c r="W167">
+        <v>0.16700000000000001</v>
+      </c>
+    </row>
+    <row r="168" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G168">
         <v>8400</v>
       </c>
       <c r="L168">
         <v>0.19800000000000001</v>
       </c>
-    </row>
-    <row r="169" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U168">
+        <f t="shared" si="8"/>
+        <v>3350</v>
+      </c>
+      <c r="V168">
+        <v>8500</v>
+      </c>
+      <c r="W168">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="169" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G169">
         <v>8450</v>
       </c>
       <c r="L169">
         <v>0.16700000000000001</v>
       </c>
-    </row>
-    <row r="170" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U169">
+        <f t="shared" si="8"/>
+        <v>3400</v>
+      </c>
+      <c r="V169">
+        <v>8550</v>
+      </c>
+      <c r="W169">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="170" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G170">
         <v>8500</v>
       </c>
       <c r="L170">
         <v>0.155</v>
       </c>
-    </row>
-    <row r="171" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U170">
+        <f t="shared" si="8"/>
+        <v>3450</v>
+      </c>
+      <c r="V170">
+        <v>8600</v>
+      </c>
+      <c r="W170">
+        <v>0.16700000000000001</v>
+      </c>
+    </row>
+    <row r="171" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G171">
         <v>8550</v>
       </c>
       <c r="L171">
         <v>0.155</v>
       </c>
-    </row>
-    <row r="172" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U171">
+        <f t="shared" si="8"/>
+        <v>3500</v>
+      </c>
+      <c r="V171">
+        <v>8650</v>
+      </c>
+      <c r="W171">
+        <v>0.187</v>
+      </c>
+    </row>
+    <row r="172" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G172">
         <v>8600</v>
       </c>
       <c r="L172">
         <v>0.16700000000000001</v>
       </c>
-    </row>
-    <row r="173" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U172">
+        <f t="shared" si="8"/>
+        <v>3550</v>
+      </c>
+      <c r="V172">
+        <v>8700</v>
+      </c>
+      <c r="W172">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G173">
         <v>8650</v>
       </c>
       <c r="L173">
         <v>0.187</v>
       </c>
-    </row>
-    <row r="174" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U173">
+        <f t="shared" si="8"/>
+        <v>3600</v>
+      </c>
+      <c r="V173">
+        <v>8750</v>
+      </c>
+      <c r="W173">
+        <v>0.221</v>
+      </c>
+    </row>
+    <row r="174" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G174">
         <v>8700</v>
       </c>
       <c r="L174">
         <v>0.20699999999999999</v>
       </c>
-    </row>
-    <row r="175" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U174">
+        <f t="shared" si="8"/>
+        <v>3650</v>
+      </c>
+      <c r="V174">
+        <v>8800</v>
+      </c>
+      <c r="W174">
+        <v>0.23100000000000001</v>
+      </c>
+    </row>
+    <row r="175" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G175">
         <v>8750</v>
       </c>
       <c r="L175">
         <v>0.221</v>
       </c>
-    </row>
-    <row r="176" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U175">
+        <f t="shared" si="8"/>
+        <v>3700</v>
+      </c>
+      <c r="V175">
+        <v>8850</v>
+      </c>
+      <c r="W175">
+        <v>0.23300000000000001</v>
+      </c>
+    </row>
+    <row r="176" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G176">
         <v>8800</v>
       </c>
       <c r="L176">
         <v>0.23100000000000001</v>
       </c>
-    </row>
-    <row r="177" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U176">
+        <f t="shared" si="8"/>
+        <v>3750</v>
+      </c>
+      <c r="V176">
+        <v>8900</v>
+      </c>
+      <c r="W176">
+        <v>0.23100000000000001</v>
+      </c>
+    </row>
+    <row r="177" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G177">
         <v>8850</v>
       </c>
       <c r="L177">
         <v>0.23300000000000001</v>
       </c>
-    </row>
-    <row r="178" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U177">
+        <f t="shared" si="8"/>
+        <v>3800</v>
+      </c>
+      <c r="V177">
+        <v>8950</v>
+      </c>
+      <c r="W177">
+        <v>0.223</v>
+      </c>
+    </row>
+    <row r="178" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G178">
         <v>8900</v>
       </c>
       <c r="L178">
         <v>0.23100000000000001</v>
       </c>
-    </row>
-    <row r="179" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U178">
+        <f t="shared" si="8"/>
+        <v>3850</v>
+      </c>
+      <c r="V178">
+        <v>9000</v>
+      </c>
+      <c r="W178">
+        <v>0.214</v>
+      </c>
+    </row>
+    <row r="179" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G179">
         <v>8950</v>
       </c>
       <c r="L179">
         <v>0.223</v>
       </c>
-    </row>
-    <row r="180" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U179">
+        <f t="shared" si="8"/>
+        <v>3900</v>
+      </c>
+      <c r="V179">
+        <v>9050</v>
+      </c>
+      <c r="W179">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="180" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G180">
         <v>9000</v>
       </c>
       <c r="L180">
         <v>0.214</v>
       </c>
-    </row>
-    <row r="181" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U180">
+        <f t="shared" si="8"/>
+        <v>3950</v>
+      </c>
+      <c r="V180">
+        <v>9100</v>
+      </c>
+      <c r="W180">
+        <v>0.19900000000000001</v>
+      </c>
+    </row>
+    <row r="181" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G181">
         <v>9050</v>
       </c>
       <c r="L181">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="182" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U181">
+        <f t="shared" si="8"/>
+        <v>4000</v>
+      </c>
+      <c r="V181">
+        <v>9150</v>
+      </c>
+      <c r="W181">
+        <v>0.185</v>
+      </c>
+    </row>
+    <row r="182" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G182">
         <v>9100</v>
       </c>
       <c r="L182">
         <v>0.19900000000000001</v>
       </c>
-    </row>
-    <row r="183" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U182">
+        <f t="shared" si="8"/>
+        <v>4050</v>
+      </c>
+      <c r="V182">
+        <v>9200</v>
+      </c>
+      <c r="W182">
+        <v>0.184</v>
+      </c>
+    </row>
+    <row r="183" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G183">
         <v>9150</v>
       </c>
       <c r="L183">
         <v>0.185</v>
       </c>
-    </row>
-    <row r="184" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U183">
+        <f t="shared" si="8"/>
+        <v>4100</v>
+      </c>
+      <c r="V183">
+        <v>9250</v>
+      </c>
+      <c r="W183">
+        <v>0.19500000000000001</v>
+      </c>
+    </row>
+    <row r="184" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G184">
         <v>9200</v>
       </c>
       <c r="L184">
         <v>0.184</v>
       </c>
-    </row>
-    <row r="185" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U184">
+        <f t="shared" si="8"/>
+        <v>4150</v>
+      </c>
+      <c r="V184">
+        <v>9300</v>
+      </c>
+      <c r="W184">
+        <v>0.20499999999999999</v>
+      </c>
+    </row>
+    <row r="185" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G185">
         <v>9250</v>
       </c>
       <c r="L185">
         <v>0.19500000000000001</v>
       </c>
-    </row>
-    <row r="186" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U185">
+        <f t="shared" si="8"/>
+        <v>4200</v>
+      </c>
+      <c r="V185">
+        <v>9350</v>
+      </c>
+      <c r="W185">
+        <v>0.216</v>
+      </c>
+    </row>
+    <row r="186" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G186">
         <v>9300</v>
       </c>
       <c r="L186">
         <v>0.20499999999999999</v>
       </c>
-    </row>
-    <row r="187" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U186">
+        <f t="shared" si="8"/>
+        <v>4250</v>
+      </c>
+      <c r="V186">
+        <v>9400</v>
+      </c>
+      <c r="W186">
+        <v>0.23599999999999999</v>
+      </c>
+    </row>
+    <row r="187" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G187">
         <v>9350</v>
       </c>
       <c r="L187">
         <v>0.216</v>
       </c>
-    </row>
-    <row r="188" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U187">
+        <f t="shared" si="8"/>
+        <v>4300</v>
+      </c>
+      <c r="V187">
+        <v>9450</v>
+      </c>
+      <c r="W187">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="188" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G188">
         <v>9400</v>
       </c>
       <c r="L188">
         <v>0.23599999999999999</v>
       </c>
-    </row>
-    <row r="189" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U188">
+        <f t="shared" si="8"/>
+        <v>4350</v>
+      </c>
+      <c r="V188">
+        <v>9500</v>
+      </c>
+      <c r="W188">
+        <v>0.23400000000000001</v>
+      </c>
+    </row>
+    <row r="189" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G189">
         <v>9450</v>
       </c>
       <c r="L189">
         <v>0.255</v>
       </c>
-    </row>
-    <row r="190" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U189">
+        <f t="shared" si="8"/>
+        <v>4400</v>
+      </c>
+      <c r="V189">
+        <v>9550</v>
+      </c>
+      <c r="W189">
+        <v>0.32800000000000001</v>
+      </c>
+    </row>
+    <row r="190" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G190">
         <v>9500</v>
       </c>
       <c r="L190">
         <v>0.23400000000000001</v>
       </c>
-    </row>
-    <row r="191" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U190">
+        <f t="shared" si="8"/>
+        <v>4450</v>
+      </c>
+      <c r="V190">
+        <v>9600</v>
+      </c>
+      <c r="W190">
+        <v>0.377</v>
+      </c>
+    </row>
+    <row r="191" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G191">
         <v>9550</v>
       </c>
       <c r="L191">
         <v>0.32800000000000001</v>
       </c>
-    </row>
-    <row r="192" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U191">
+        <f t="shared" si="8"/>
+        <v>4500</v>
+      </c>
+      <c r="V191">
+        <v>9650</v>
+      </c>
+      <c r="W191">
+        <v>0.433</v>
+      </c>
+    </row>
+    <row r="192" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G192">
         <v>9600</v>
       </c>
       <c r="L192">
         <v>0.377</v>
       </c>
-    </row>
-    <row r="193" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U192">
+        <f t="shared" si="8"/>
+        <v>4550</v>
+      </c>
+      <c r="V192">
+        <v>9700</v>
+      </c>
+      <c r="W192">
+        <v>0.501</v>
+      </c>
+    </row>
+    <row r="193" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G193">
         <v>9650</v>
       </c>
       <c r="L193">
         <v>0.433</v>
       </c>
-    </row>
-    <row r="194" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U193">
+        <f t="shared" si="8"/>
+        <v>4600</v>
+      </c>
+      <c r="V193">
+        <v>9750</v>
+      </c>
+      <c r="W193">
+        <v>0.57199999999999995</v>
+      </c>
+    </row>
+    <row r="194" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G194">
         <v>9700</v>
       </c>
       <c r="L194">
         <v>0.501</v>
       </c>
-    </row>
-    <row r="195" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U194">
+        <f t="shared" si="8"/>
+        <v>4650</v>
+      </c>
+      <c r="V194">
+        <v>9800</v>
+      </c>
+      <c r="W194">
+        <v>0.64600000000000002</v>
+      </c>
+    </row>
+    <row r="195" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G195">
         <v>9750</v>
       </c>
       <c r="L195">
         <v>0.57199999999999995</v>
       </c>
-    </row>
-    <row r="196" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U195">
+        <f t="shared" si="8"/>
+        <v>4700</v>
+      </c>
+      <c r="V195">
+        <v>9850</v>
+      </c>
+      <c r="W195">
+        <v>0.70899999999999996</v>
+      </c>
+    </row>
+    <row r="196" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G196">
         <v>9800</v>
       </c>
       <c r="L196">
         <v>0.64600000000000002</v>
       </c>
-    </row>
-    <row r="197" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U196">
+        <f t="shared" si="8"/>
+        <v>4750</v>
+      </c>
+      <c r="V196">
+        <v>9900</v>
+      </c>
+      <c r="W196">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="197" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G197">
         <v>9850</v>
       </c>
       <c r="L197">
         <v>0.70899999999999996</v>
       </c>
-    </row>
-    <row r="198" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U197">
+        <f t="shared" si="8"/>
+        <v>4800</v>
+      </c>
+      <c r="V197">
+        <v>9950</v>
+      </c>
+      <c r="W197">
+        <v>0.82799999999999996</v>
+      </c>
+    </row>
+    <row r="198" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G198">
         <v>9900</v>
       </c>
       <c r="L198">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="199" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="U198">
+        <f t="shared" si="8"/>
+        <v>4850</v>
+      </c>
+      <c r="V198">
+        <v>10000</v>
+      </c>
+      <c r="W198">
+        <v>0.88600000000000001</v>
+      </c>
+    </row>
+    <row r="199" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G199">
         <v>9950</v>
       </c>
@@ -5599,7 +7595,7 @@
         <v>0.82799999999999996</v>
       </c>
     </row>
-    <row r="200" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G200">
         <v>10000</v>
       </c>
@@ -5607,7 +7603,7 @@
         <v>0.88600000000000001</v>
       </c>
     </row>
-    <row r="201" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="7:23" x14ac:dyDescent="0.25">
       <c r="L201">
         <v>0.94099999999999995</v>
       </c>
